--- a/Thedal/resource/TestCase/Thedal_Automation_Testcase.xlsx
+++ b/Thedal/resource/TestCase/Thedal_Automation_Testcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>Test Description</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Verify Login without data</t>
+  </si>
+  <si>
+    <t>knila@123</t>
   </si>
 </sst>
 </file>
@@ -92,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -108,25 +111,55 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,29 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -170,7 +180,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,6 +194,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -201,50 +248,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,13 +262,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,36 +286,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -331,7 +412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,103 +430,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,11 +456,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,32 +495,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,11 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,148 +558,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -704,10 +707,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,13 +1027,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="16.8611111111111" customWidth="1"/>
@@ -1064,27 +1067,12 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1095,38 +1083,55 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1135,9 +1140,69 @@
         <v>22</v>
       </c>
     </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="admin1@g.com"/>
+    <hyperlink ref="F4" r:id="rId1" display="admin1@g.com"/>
+    <hyperlink ref="F10" r:id="rId2" display="knila@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/Thedal/resource/TestCase/Thedal_Automation_Testcase.xlsx
+++ b/Thedal/resource/TestCase/Thedal_Automation_Testcase.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -97,8 +95,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -133,11 +131,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,7 +155,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,14 +169,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -187,20 +200,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -214,6 +213,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -224,14 +230,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,18 +260,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -287,162 +441,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,6 +451,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,9 +489,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,24 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -524,17 +533,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,148 +556,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,7 +1028,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1207,36 +1205,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Thedal/resource/TestCase/Thedal_Automation_Testcase.xlsx
+++ b/Thedal/resource/TestCase/Thedal_Automation_Testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9887"/>
+    <workbookView windowWidth="28695" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>Test Description</t>
   </si>
@@ -34,58 +34,118 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Verify thedal url navigates the user to login screen</t>
+  </si>
+  <si>
+    <t>Enter Thedal URL</t>
+  </si>
+  <si>
+    <t>GotoURL</t>
+  </si>
+  <si>
+    <t>http://192.168.1.129:3000</t>
+  </si>
+  <si>
+    <t>Verify Login page appear</t>
+  </si>
+  <si>
+    <t>VerifyContent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xpath </t>
+  </si>
+  <si>
+    <t>//div[@class='panel-heading']/h3[@class='panel-title']</t>
+  </si>
+  <si>
+    <t>Thedal Login</t>
+  </si>
+  <si>
+    <t>Verify Login without data</t>
+  </si>
+  <si>
+    <t>Enter  UserName</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>signin_email</t>
+  </si>
+  <si>
+    <t>Enter Password</t>
+  </si>
+  <si>
+    <t>enterandtab</t>
+  </si>
+  <si>
+    <t>signin_pwd</t>
+  </si>
+  <si>
+    <t>knila@123</t>
+  </si>
+  <si>
+    <t>Click Submit</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>//input[@id='signin_button_submit']</t>
+  </si>
+  <si>
     <t>Verify Login with valid data</t>
   </si>
   <si>
-    <t>Enter  UserName</t>
-  </si>
-  <si>
-    <t>EnterInput</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>signin_email</t>
+    <t>ClearAndEnter</t>
   </si>
   <si>
     <t>admin1@g.com</t>
   </si>
   <si>
-    <t>Enter Password</t>
+    <t>clearentertab</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>Click Submit</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xpath </t>
-  </si>
-  <si>
-    <t>//input[@id='signin_button_submit']</t>
-  </si>
-  <si>
     <t>Page should navigate to Homepage</t>
   </si>
   <si>
-    <t>Verify</t>
-  </si>
-  <si>
     <t>//div[@class='col-sm-6']/h2[@class='ml-15']</t>
   </si>
   <si>
     <t>Users</t>
   </si>
   <si>
-    <t>Verify Login without data</t>
-  </si>
-  <si>
-    <t>knila@123</t>
+    <t xml:space="preserve">Verify Add admin User </t>
+  </si>
+  <si>
+    <t>Click Add User button</t>
+  </si>
+  <si>
+    <t>//div[@id='admin']/div[@class='card card-table']/div[@class='text-right col-sm-5 ']/a[@class='btn mr-30 btn-info btn-lg btn-add']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>Click add Image</t>
+  </si>
+  <si>
+    <t>banner_image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload image for user </t>
+  </si>
+  <si>
+    <t>ImageUpload</t>
+  </si>
+  <si>
+    <t>C:\Users\Knila5\Pictures\download1.jpg</t>
   </si>
 </sst>
 </file>
@@ -93,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -109,15 +169,29 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,9 +199,55 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,23 +259,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,23 +275,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,59 +305,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,187 +320,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +511,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,9 +540,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,26 +588,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -522,32 +603,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,13 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,144 +625,153 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,6 +827,11 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1023,22 +1091,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="16.8611111111111" customWidth="1"/>
-    <col min="3" max="3" width="15.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="15.712962962963" customWidth="1"/>
-    <col min="5" max="5" width="14.4259259259259" customWidth="1"/>
-    <col min="6" max="6" width="16.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="33.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="15.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="15.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="57.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="16.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1061,12 +1129,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
@@ -1075,132 +1141,218 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
       <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
       <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
         <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="admin1@g.com"/>
-    <hyperlink ref="F10" r:id="rId2" display="knila@123"/>
+    <hyperlink ref="F12" r:id="rId1" display="admin1@g.com"/>
+    <hyperlink ref="F8" r:id="rId2" display="knila@123"/>
+    <hyperlink ref="F4" r:id="rId3" display="http://192.168.1.129:3000"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/Thedal/resource/TestCase/Thedal_Automation_Testcase.xlsx
+++ b/Thedal/resource/TestCase/Thedal_Automation_Testcase.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13035"/>
+    <workbookView windowWidth="28695" windowHeight="13035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
+    <sheet name="Actions" sheetId="2" r:id="rId2"/>
+    <sheet name="Pages" sheetId="4" r:id="rId3"/>
+    <sheet name="Locator" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
   <si>
     <t>Test Description</t>
   </si>
@@ -146,6 +149,315 @@
   </si>
   <si>
     <t>C:\Users\Knila5\Pictures\download1.jpg</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Use to click on the element</t>
+  </si>
+  <si>
+    <t>Use to Enter inside the element</t>
+  </si>
+  <si>
+    <t>EnterAndTab</t>
+  </si>
+  <si>
+    <t>Use to Enter inside the element and Press tab key</t>
+  </si>
+  <si>
+    <t>Clear the content inside the textbox and Enter inside the element</t>
+  </si>
+  <si>
+    <t>ClearEnterTab</t>
+  </si>
+  <si>
+    <t>Clear the content inside the textbox and Enter inside the element and Press tab key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to navigate to any URL </t>
+  </si>
+  <si>
+    <t>Choose</t>
+  </si>
+  <si>
+    <t>Choose any value from Dropdown field</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Select any value from Dropdown field</t>
+  </si>
+  <si>
+    <t>VerifyPageTitle</t>
+  </si>
+  <si>
+    <t>Used to verify the title of a page</t>
+  </si>
+  <si>
+    <t>Used to Read/Verify the Content inside a field/label</t>
+  </si>
+  <si>
+    <t>VerifyElementPresent</t>
+  </si>
+  <si>
+    <t>Used to verify/Check the element isVisible/isDisabled</t>
+  </si>
+  <si>
+    <t>Used to upload any image file to FileUploadControl Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actions </t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Steps - Mandatory,</t>
+  </si>
+  <si>
+    <t>Action - Mandatory,</t>
+  </si>
+  <si>
+    <t>ElementType - Mandatory,</t>
+  </si>
+  <si>
+    <t>ElementPath - Mandatory,</t>
+  </si>
+  <si>
+    <t>value - Optional</t>
+  </si>
+  <si>
+    <t>value - Mandatory</t>
+  </si>
+  <si>
+    <t>Action - Optional,</t>
+  </si>
+  <si>
+    <t>ElementType - Optional,</t>
+  </si>
+  <si>
+    <t>ElementPath - Optional,</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>Textbox</t>
+  </si>
+  <si>
+    <t>txtbx</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>DropDown/Combo</t>
+  </si>
+  <si>
+    <t>drpdwn</t>
+  </si>
+  <si>
+    <t>ForgetPassword</t>
+  </si>
+  <si>
+    <t>forgetfassword</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>ResetPassword</t>
+  </si>
+  <si>
+    <t>resetpassword</t>
+  </si>
+  <si>
+    <t>RadioButton</t>
+  </si>
+  <si>
+    <t>rdbtn</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>CheckBox</t>
+  </si>
+  <si>
+    <t>ckbx</t>
+  </si>
+  <si>
+    <t>AdminList</t>
+  </si>
+  <si>
+    <t>adminlist</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>btn</t>
+  </si>
+  <si>
+    <t>AddAdmin</t>
+  </si>
+  <si>
+    <t>addadmin</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>lnk</t>
+  </si>
+  <si>
+    <t>EditAdmin</t>
+  </si>
+  <si>
+    <t>editadmin</t>
+  </si>
+  <si>
+    <t>CityAdminList</t>
+  </si>
+  <si>
+    <t>cityadminlist</t>
+  </si>
+  <si>
+    <t>AddCityAdmin</t>
+  </si>
+  <si>
+    <t>addcityadmin</t>
+  </si>
+  <si>
+    <t>EditCityAdmin</t>
+  </si>
+  <si>
+    <t>editcityadmin</t>
+  </si>
+  <si>
+    <t>SupervisorList</t>
+  </si>
+  <si>
+    <t>supervisorlist</t>
+  </si>
+  <si>
+    <t>AddSupervisor</t>
+  </si>
+  <si>
+    <t>addsupervisor</t>
+  </si>
+  <si>
+    <t>EditSupervisor</t>
+  </si>
+  <si>
+    <t>editsupervisor</t>
+  </si>
+  <si>
+    <t>VendorList</t>
+  </si>
+  <si>
+    <t>vendorlist</t>
+  </si>
+  <si>
+    <t>AddVendor</t>
+  </si>
+  <si>
+    <t>addvendor</t>
+  </si>
+  <si>
+    <t>EditVendor</t>
+  </si>
+  <si>
+    <t>editvendor</t>
+  </si>
+  <si>
+    <t>AddUserList</t>
+  </si>
+  <si>
+    <t>adduserlist</t>
+  </si>
+  <si>
+    <t>AddVolunteer</t>
+  </si>
+  <si>
+    <t>addvolunteer</t>
+  </si>
+  <si>
+    <t>AddBloodDonor</t>
+  </si>
+  <si>
+    <t>addblooddonor</t>
+  </si>
+  <si>
+    <t>CityList</t>
+  </si>
+  <si>
+    <t>citylist</t>
+  </si>
+  <si>
+    <t>AddCity</t>
+  </si>
+  <si>
+    <t>addcity</t>
+  </si>
+  <si>
+    <t>EditCity</t>
+  </si>
+  <si>
+    <t>editcity</t>
+  </si>
+  <si>
+    <t>ThedalVideoList</t>
+  </si>
+  <si>
+    <t>thedalvideolist</t>
+  </si>
+  <si>
+    <t>AddThedalVideo</t>
+  </si>
+  <si>
+    <t>addthedalvideo</t>
+  </si>
+  <si>
+    <t>EditThedalVideo</t>
+  </si>
+  <si>
+    <t>editthedalvideo</t>
+  </si>
+  <si>
+    <t>ElementName</t>
+  </si>
+  <si>
+    <t>ElementID</t>
+  </si>
+  <si>
+    <t>ElementLocation</t>
   </si>
 </sst>
 </file>
@@ -158,10 +470,18 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -184,14 +504,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,7 +631,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,25 +640,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,169 +830,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -616,7 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,144 +975,171 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,8 +1463,8 @@
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1141,7 +1509,7 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1158,7 +1526,7 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1194,7 +1562,7 @@
       <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1225,7 +1593,7 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1233,8 +1601,8 @@
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
@@ -1249,7 +1617,7 @@
       <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1357,4 +1725,1190 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="23.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="77.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="14.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="14.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6">
+        <v>2</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="6">
+        <v>3</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="6">
+        <v>4</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="6">
+        <v>5</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="6">
+        <v>6</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="6">
+        <v>7</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="6">
+        <v>8</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="6">
+        <v>9</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="6">
+        <v>10</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="6">
+        <v>11</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" s="6"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="6">
+        <v>12</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="B82:B87"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="12.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="17.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="18.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" s="3">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="D10" s="3">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" s="3">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="D13" s="3">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="D14" s="3">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="D15" s="3">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="D16" s="3">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="3">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="3">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="3">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="3">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="3">
+        <v>20</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="3">
+        <v>21</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="3">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" s="3">
+        <v>23</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="3">
+        <v>24</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="D26" s="3">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="18.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="13.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Thedal/resource/TestCase/Thedal_Automation_Testcase.xlsx
+++ b/Thedal/resource/TestCase/Thedal_Automation_Testcase.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13035" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
-    <sheet name="Actions" sheetId="2" r:id="rId2"/>
+    <sheet name="Locator" sheetId="3" r:id="rId2"/>
     <sheet name="Pages" sheetId="4" r:id="rId3"/>
-    <sheet name="Locator" sheetId="3" r:id="rId4"/>
+    <sheet name="Actions" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
   <si>
     <t>Test Description</t>
   </si>
@@ -28,10 +28,7 @@
     <t>Action</t>
   </si>
   <si>
-    <t>Element Type</t>
-  </si>
-  <si>
-    <t>Element Path</t>
+    <t>ElementName</t>
   </si>
   <si>
     <t>Value</t>
@@ -55,162 +52,381 @@
     <t>VerifyContent</t>
   </si>
   <si>
-    <t xml:space="preserve">xpath </t>
+    <t>login_title_pagetitle</t>
+  </si>
+  <si>
+    <t>Thedal Login</t>
+  </si>
+  <si>
+    <t>Verify Login without data</t>
+  </si>
+  <si>
+    <t>Enter  UserName</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>login_txtbx_username</t>
+  </si>
+  <si>
+    <t>Enter Password</t>
+  </si>
+  <si>
+    <t>login_txtbx_password</t>
+  </si>
+  <si>
+    <t>knila@123</t>
+  </si>
+  <si>
+    <t>Click Submit</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>login_btn_login</t>
+  </si>
+  <si>
+    <t>Verify Login with valid data</t>
+  </si>
+  <si>
+    <t>ClearAndEnter</t>
+  </si>
+  <si>
+    <t>admin1@g.com</t>
+  </si>
+  <si>
+    <t>ClearEnterTab</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Page Name</t>
+  </si>
+  <si>
+    <t>Field Type</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>ElementID</t>
+  </si>
+  <si>
+    <t>ElementLocation</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>txtbx</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>signin_email</t>
+  </si>
+  <si>
+    <t>signin_pwd</t>
+  </si>
+  <si>
+    <t>btn</t>
+  </si>
+  <si>
+    <t>signin_button_submit</t>
+  </si>
+  <si>
+    <t>lnk</t>
+  </si>
+  <si>
+    <t>forgetpassword</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='panel-body']/label/a</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
+    <t>signin_email_err</t>
+  </si>
+  <si>
+    <t>signin_pwd_err</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>pagetitle</t>
   </si>
   <si>
     <t>//div[@class='panel-heading']/h3[@class='panel-title']</t>
   </si>
   <si>
-    <t>Thedal Login</t>
-  </si>
-  <si>
-    <t>Verify Login without data</t>
-  </si>
-  <si>
-    <t>Enter  UserName</t>
-  </si>
-  <si>
-    <t>Enter</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>signin_email</t>
-  </si>
-  <si>
-    <t>Enter Password</t>
-  </si>
-  <si>
-    <t>enterandtab</t>
-  </si>
-  <si>
-    <t>signin_pwd</t>
-  </si>
-  <si>
-    <t>knila@123</t>
-  </si>
-  <si>
-    <t>Click Submit</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>//input[@id='signin_button_submit']</t>
-  </si>
-  <si>
-    <t>Verify Login with valid data</t>
-  </si>
-  <si>
-    <t>ClearAndEnter</t>
-  </si>
-  <si>
-    <t>admin1@g.com</t>
-  </si>
-  <si>
-    <t>clearentertab</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Page should navigate to Homepage</t>
-  </si>
-  <si>
-    <t>//div[@class='col-sm-6']/h2[@class='ml-15']</t>
-  </si>
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Add admin User </t>
-  </si>
-  <si>
-    <t>Click Add User button</t>
-  </si>
-  <si>
-    <t>//div[@id='admin']/div[@class='card card-table']/div[@class='text-right col-sm-5 ']/a[@class='btn mr-30 btn-info btn-lg btn-add']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       </t>
-  </si>
-  <si>
-    <t>Click add Image</t>
-  </si>
-  <si>
-    <t>banner_image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upload image for user </t>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>ForgetPassword</t>
+  </si>
+  <si>
+    <t>forgetfassword</t>
+  </si>
+  <si>
+    <t>ResetPassword</t>
+  </si>
+  <si>
+    <t>resetpassword</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>AdminList</t>
+  </si>
+  <si>
+    <t>adminlist</t>
+  </si>
+  <si>
+    <t>AddAdmin</t>
+  </si>
+  <si>
+    <t>addadmin</t>
+  </si>
+  <si>
+    <t>EditAdmin</t>
+  </si>
+  <si>
+    <t>editadmin</t>
+  </si>
+  <si>
+    <t>CityAdminList</t>
+  </si>
+  <si>
+    <t>cityadminlist</t>
+  </si>
+  <si>
+    <t>AddCityAdmin</t>
+  </si>
+  <si>
+    <t>addcityadmin</t>
+  </si>
+  <si>
+    <t>EditCityAdmin</t>
+  </si>
+  <si>
+    <t>editcityadmin</t>
+  </si>
+  <si>
+    <t>SupervisorList</t>
+  </si>
+  <si>
+    <t>supervisorlist</t>
+  </si>
+  <si>
+    <t>AddSupervisor</t>
+  </si>
+  <si>
+    <t>addsupervisor</t>
+  </si>
+  <si>
+    <t>EditSupervisor</t>
+  </si>
+  <si>
+    <t>editsupervisor</t>
+  </si>
+  <si>
+    <t>VendorList</t>
+  </si>
+  <si>
+    <t>vendorlist</t>
+  </si>
+  <si>
+    <t>AddVendor</t>
+  </si>
+  <si>
+    <t>addvendor</t>
+  </si>
+  <si>
+    <t>EditVendor</t>
+  </si>
+  <si>
+    <t>editvendor</t>
+  </si>
+  <si>
+    <t>AddUserList</t>
+  </si>
+  <si>
+    <t>adduserlist</t>
+  </si>
+  <si>
+    <t>AddVolunteer</t>
+  </si>
+  <si>
+    <t>addvolunteer</t>
+  </si>
+  <si>
+    <t>AddBloodDonor</t>
+  </si>
+  <si>
+    <t>addblooddonor</t>
+  </si>
+  <si>
+    <t>CityList</t>
+  </si>
+  <si>
+    <t>citylist</t>
+  </si>
+  <si>
+    <t>AddCity</t>
+  </si>
+  <si>
+    <t>addcity</t>
+  </si>
+  <si>
+    <t>EditCity</t>
+  </si>
+  <si>
+    <t>editcity</t>
+  </si>
+  <si>
+    <t>ThedalVideoList</t>
+  </si>
+  <si>
+    <t>thedalvideolist</t>
+  </si>
+  <si>
+    <t>AddThedalVideo</t>
+  </si>
+  <si>
+    <t>addthedalvideo</t>
+  </si>
+  <si>
+    <t>EditThedalVideo</t>
+  </si>
+  <si>
+    <t>editthedalvideo</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>Use to click on the element</t>
+  </si>
+  <si>
+    <t>Textbox</t>
+  </si>
+  <si>
+    <t>Use to Enter inside the element</t>
+  </si>
+  <si>
+    <t>DropDown/Combo</t>
+  </si>
+  <si>
+    <t>drpdwn</t>
+  </si>
+  <si>
+    <t>EnterAndTab</t>
+  </si>
+  <si>
+    <t>Use to Enter inside the element and Press tab key</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Clear the content inside the textbox and Enter inside the element</t>
+  </si>
+  <si>
+    <t>RadioButton</t>
+  </si>
+  <si>
+    <t>rdbtn</t>
+  </si>
+  <si>
+    <t>Clear the content inside the textbox and Enter inside the element and Press tab key</t>
+  </si>
+  <si>
+    <t>CheckBox</t>
+  </si>
+  <si>
+    <t>ckbx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to navigate to any URL </t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Choose</t>
+  </si>
+  <si>
+    <t>Choose any value from Dropdown field</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Select any value from Dropdown field</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>VerifyPageTitle</t>
+  </si>
+  <si>
+    <t>Used to verify the title of a page</t>
+  </si>
+  <si>
+    <t>Used to Read/Verify the Content inside a field/label</t>
+  </si>
+  <si>
+    <t>VerifyElementPresent</t>
+  </si>
+  <si>
+    <t>Used to verify/Check the element isVisible/isDisabled</t>
   </si>
   <si>
     <t>ImageUpload</t>
   </si>
   <si>
-    <t>C:\Users\Knila5\Pictures\download1.jpg</t>
-  </si>
-  <si>
-    <t>S.No</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Use to click on the element</t>
-  </si>
-  <si>
-    <t>Use to Enter inside the element</t>
-  </si>
-  <si>
-    <t>EnterAndTab</t>
-  </si>
-  <si>
-    <t>Use to Enter inside the element and Press tab key</t>
-  </si>
-  <si>
-    <t>Clear the content inside the textbox and Enter inside the element</t>
-  </si>
-  <si>
-    <t>ClearEnterTab</t>
-  </si>
-  <si>
-    <t>Clear the content inside the textbox and Enter inside the element and Press tab key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used to navigate to any URL </t>
-  </si>
-  <si>
-    <t>Choose</t>
-  </si>
-  <si>
-    <t>Choose any value from Dropdown field</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select any value from Dropdown field</t>
-  </si>
-  <si>
-    <t>VerifyPageTitle</t>
-  </si>
-  <si>
-    <t>Used to verify the title of a page</t>
-  </si>
-  <si>
-    <t>Used to Read/Verify the Content inside a field/label</t>
-  </si>
-  <si>
-    <t>VerifyElementPresent</t>
-  </si>
-  <si>
-    <t>Used to verify/Check the element isVisible/isDisabled</t>
-  </si>
-  <si>
     <t>Used to upload any image file to FileUploadControl Field</t>
   </si>
   <si>
@@ -220,21 +436,63 @@
     <t>Parameter</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Locator</t>
+  </si>
+  <si>
+    <t>XPATH</t>
+  </si>
+  <si>
     <t>Steps - Mandatory,</t>
   </si>
   <si>
+    <t>CLASSNAME</t>
+  </si>
+  <si>
+    <t>className</t>
+  </si>
+  <si>
     <t>Action - Mandatory,</t>
   </si>
   <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>ElementType - Mandatory,</t>
   </si>
   <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>cssSelector</t>
+  </si>
+  <si>
     <t>ElementPath - Mandatory,</t>
   </si>
   <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>linkText</t>
+  </si>
+  <si>
     <t>value - Optional</t>
   </si>
   <si>
+    <t>PARTIALLINK</t>
+  </si>
+  <si>
+    <t>partialLinkText</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>value - Mandatory</t>
   </si>
   <si>
@@ -245,219 +503,6 @@
   </si>
   <si>
     <t>ElementPath - Optional,</t>
-  </si>
-  <si>
-    <t>Fields</t>
-  </si>
-  <si>
-    <t>Annotation</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>Prefix</t>
-  </si>
-  <si>
-    <t>Textbox</t>
-  </si>
-  <si>
-    <t>txtbx</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>DropDown/Combo</t>
-  </si>
-  <si>
-    <t>drpdwn</t>
-  </si>
-  <si>
-    <t>ForgetPassword</t>
-  </si>
-  <si>
-    <t>forgetfassword</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>ResetPassword</t>
-  </si>
-  <si>
-    <t>resetpassword</t>
-  </si>
-  <si>
-    <t>RadioButton</t>
-  </si>
-  <si>
-    <t>rdbtn</t>
-  </si>
-  <si>
-    <t>Menu</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>CheckBox</t>
-  </si>
-  <si>
-    <t>ckbx</t>
-  </si>
-  <si>
-    <t>AdminList</t>
-  </si>
-  <si>
-    <t>adminlist</t>
-  </si>
-  <si>
-    <t>Button</t>
-  </si>
-  <si>
-    <t>btn</t>
-  </si>
-  <si>
-    <t>AddAdmin</t>
-  </si>
-  <si>
-    <t>addadmin</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>lnk</t>
-  </si>
-  <si>
-    <t>EditAdmin</t>
-  </si>
-  <si>
-    <t>editadmin</t>
-  </si>
-  <si>
-    <t>CityAdminList</t>
-  </si>
-  <si>
-    <t>cityadminlist</t>
-  </si>
-  <si>
-    <t>AddCityAdmin</t>
-  </si>
-  <si>
-    <t>addcityadmin</t>
-  </si>
-  <si>
-    <t>EditCityAdmin</t>
-  </si>
-  <si>
-    <t>editcityadmin</t>
-  </si>
-  <si>
-    <t>SupervisorList</t>
-  </si>
-  <si>
-    <t>supervisorlist</t>
-  </si>
-  <si>
-    <t>AddSupervisor</t>
-  </si>
-  <si>
-    <t>addsupervisor</t>
-  </si>
-  <si>
-    <t>EditSupervisor</t>
-  </si>
-  <si>
-    <t>editsupervisor</t>
-  </si>
-  <si>
-    <t>VendorList</t>
-  </si>
-  <si>
-    <t>vendorlist</t>
-  </si>
-  <si>
-    <t>AddVendor</t>
-  </si>
-  <si>
-    <t>addvendor</t>
-  </si>
-  <si>
-    <t>EditVendor</t>
-  </si>
-  <si>
-    <t>editvendor</t>
-  </si>
-  <si>
-    <t>AddUserList</t>
-  </si>
-  <si>
-    <t>adduserlist</t>
-  </si>
-  <si>
-    <t>AddVolunteer</t>
-  </si>
-  <si>
-    <t>addvolunteer</t>
-  </si>
-  <si>
-    <t>AddBloodDonor</t>
-  </si>
-  <si>
-    <t>addblooddonor</t>
-  </si>
-  <si>
-    <t>CityList</t>
-  </si>
-  <si>
-    <t>citylist</t>
-  </si>
-  <si>
-    <t>AddCity</t>
-  </si>
-  <si>
-    <t>addcity</t>
-  </si>
-  <si>
-    <t>EditCity</t>
-  </si>
-  <si>
-    <t>editcity</t>
-  </si>
-  <si>
-    <t>ThedalVideoList</t>
-  </si>
-  <si>
-    <t>thedalvideolist</t>
-  </si>
-  <si>
-    <t>AddThedalVideo</t>
-  </si>
-  <si>
-    <t>addthedalvideo</t>
-  </si>
-  <si>
-    <t>EditThedalVideo</t>
-  </si>
-  <si>
-    <t>editthedalvideo</t>
-  </si>
-  <si>
-    <t>ElementName</t>
-  </si>
-  <si>
-    <t>ElementID</t>
-  </si>
-  <si>
-    <t>ElementLocation</t>
   </si>
 </sst>
 </file>
@@ -504,14 +549,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,6 +691,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -664,6 +715,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -682,6 +739,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -694,6 +757,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -718,6 +787,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -736,13 +811,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,6 +841,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -784,49 +865,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,7 +1002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -975,156 +1020,159 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1133,10 +1181,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
@@ -1461,23 +1512,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="33.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="15.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="15.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="57.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="16.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="39.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1493,234 +1543,155 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10" t="s">
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="12" t="s">
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" t="s">
-        <v>43</v>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C6:C11 C12:C14 C15:C1048576">
+      <formula1>Actions!$B$2:$B$13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 D6:D1048576">
+      <formula1>Locator!$E$2:$E$1048576</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1" display="admin1@g.com"/>
-    <hyperlink ref="F8" r:id="rId2" display="knila@123"/>
-    <hyperlink ref="F4" r:id="rId3" display="http://192.168.1.129:3000"/>
+    <hyperlink ref="E12" r:id="rId1" display="admin1@g.com"/>
+    <hyperlink ref="E8" r:id="rId2" display="knila@123"/>
+    <hyperlink ref="E4" r:id="rId3" display="http://192.168.1.129:3000"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1730,322 +1701,972 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="12.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="11.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="17.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="18.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="13.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE(B2,"_",C2,"_",D2)</f>
+        <v>login_txtbx_username</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E8" si="0">CONCATENATE(B3,"_",C3,"_",D3)</f>
+        <v>login_txtbx_password</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>login_btn_login</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>login_lnk_forgetpassword</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>login_err_username</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>login_err_password</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>login_title_pagetitle</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C2:C7 C10:C1048576">
+      <formula1>Actions!$F$2:$F$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8 F2:F7 F10:F1048576">
+      <formula1>Actions!$F$16:$F$22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8 B9:B1048576">
+      <formula1>Pages!$C$2:$C$1048576</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="17.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="18.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="77.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="14.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="12.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="H5" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+        <v>122</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+        <v>125</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+        <v>128</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+        <v>131</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+        <v>132</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+        <v>134</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>136</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="5:6">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="6">
         <v>1</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="E16" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>142</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>145</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>148</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>151</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>154</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="6">
         <v>2</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C22" s="6"/>
+      <c r="E22" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2053,7 +2674,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C28" s="6"/>
     </row>
@@ -2061,35 +2682,35 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2097,7 +2718,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C34" s="6"/>
     </row>
@@ -2105,35 +2726,35 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2141,7 +2762,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C40" s="6"/>
     </row>
@@ -2149,35 +2770,35 @@
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2185,7 +2806,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" s="6"/>
     </row>
@@ -2193,35 +2814,35 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2229,7 +2850,7 @@
         <v>7</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="C52" s="6"/>
     </row>
@@ -2237,35 +2858,35 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2273,7 +2894,7 @@
         <v>8</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="C58" s="6"/>
     </row>
@@ -2281,35 +2902,35 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2317,7 +2938,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="C64" s="6"/>
     </row>
@@ -2325,35 +2946,35 @@
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2361,7 +2982,7 @@
         <v>10</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" s="6"/>
     </row>
@@ -2369,35 +2990,35 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2405,7 +3026,7 @@
         <v>11</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="C76" s="6"/>
     </row>
@@ -2413,35 +3034,35 @@
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2449,7 +3070,7 @@
         <v>12</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="C82" s="6"/>
     </row>
@@ -2457,38 +3078,39 @@
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="DE55" sheet="1" objects="1"/>
   <mergeCells count="24">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
@@ -2518,397 +3140,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="12.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="17.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="18.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6">
-      <c r="D9" s="3">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6">
-      <c r="D10" s="3">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6">
-      <c r="D11" s="3">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6">
-      <c r="D12" s="3">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6">
-      <c r="D13" s="3">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6">
-      <c r="D14" s="3">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6">
-      <c r="D15" s="3">
-        <v>14</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6">
-      <c r="D16" s="3">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6">
-      <c r="D17" s="3">
-        <v>16</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6">
-      <c r="D18" s="3">
-        <v>17</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6">
-      <c r="D19" s="3">
-        <v>18</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6">
-      <c r="D20" s="3">
-        <v>19</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="D21" s="3">
-        <v>20</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="D22" s="3">
-        <v>21</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="D23" s="3">
-        <v>22</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6">
-      <c r="D24" s="3">
-        <v>23</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6">
-      <c r="D25" s="3">
-        <v>24</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6">
-      <c r="D26" s="3">
-        <v>25</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="18.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="13.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Thedal/resource/TestCase/Thedal_Automation_Testcase.xlsx
+++ b/Thedal/resource/TestCase/Thedal_Automation_Testcase.xlsx
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
   <si>
     <t>Test Description</t>
   </si>
   <si>
-    <t>test Steps</t>
+    <t>Test Steps</t>
   </si>
   <si>
     <t>Action</t>
@@ -103,7 +103,13 @@
     <t>password</t>
   </si>
   <si>
-    <t xml:space="preserve">       </t>
+    <t>Verify screen navigates to User's page</t>
+  </si>
+  <si>
+    <t>AdminList_title_pagetitle</t>
+  </si>
+  <si>
+    <t>Users</t>
   </si>
   <si>
     <t>S.No</t>
@@ -178,159 +184,114 @@
     <t>//div[@class='panel-heading']/h3[@class='panel-title']</t>
   </si>
   <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>brandlogo</t>
+  </si>
+  <si>
+    <t>//a[@class='navbar-brand']/img[@class='img-responsive']/@src</t>
+  </si>
+  <si>
+    <t>ForgetPassword</t>
+  </si>
+  <si>
+    <t>forget_pwd_email</t>
+  </si>
+  <si>
+    <t>resend</t>
+  </si>
+  <si>
+    <t>forget_pwd_button_submit</t>
+  </si>
+  <si>
+    <t>//div[@class='panel panel-default']/div[@class='panel-body']/label/a</t>
+  </si>
+  <si>
+    <t>idnotfound</t>
+  </si>
+  <si>
+    <t>forget_pwd_email_error</t>
+  </si>
+  <si>
+    <t>AdminList</t>
+  </si>
+  <si>
+    <t>//div[@class='col-sm-6']/h2[@class='ml-15']</t>
+  </si>
+  <si>
     <t>Page</t>
   </si>
   <si>
-    <t>Prefix</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>ForgetPassword</t>
-  </si>
-  <si>
-    <t>forgetfassword</t>
-  </si>
-  <si>
     <t>ResetPassword</t>
   </si>
   <si>
-    <t>resetpassword</t>
-  </si>
-  <si>
     <t>Menu</t>
   </si>
   <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>AdminList</t>
-  </si>
-  <si>
-    <t>adminlist</t>
-  </si>
-  <si>
     <t>AddAdmin</t>
   </si>
   <si>
-    <t>addadmin</t>
-  </si>
-  <si>
     <t>EditAdmin</t>
   </si>
   <si>
-    <t>editadmin</t>
-  </si>
-  <si>
     <t>CityAdminList</t>
   </si>
   <si>
-    <t>cityadminlist</t>
-  </si>
-  <si>
     <t>AddCityAdmin</t>
   </si>
   <si>
-    <t>addcityadmin</t>
-  </si>
-  <si>
     <t>EditCityAdmin</t>
   </si>
   <si>
-    <t>editcityadmin</t>
-  </si>
-  <si>
     <t>SupervisorList</t>
   </si>
   <si>
-    <t>supervisorlist</t>
-  </si>
-  <si>
     <t>AddSupervisor</t>
   </si>
   <si>
-    <t>addsupervisor</t>
-  </si>
-  <si>
     <t>EditSupervisor</t>
   </si>
   <si>
-    <t>editsupervisor</t>
-  </si>
-  <si>
     <t>VendorList</t>
   </si>
   <si>
-    <t>vendorlist</t>
-  </si>
-  <si>
     <t>AddVendor</t>
   </si>
   <si>
-    <t>addvendor</t>
-  </si>
-  <si>
     <t>EditVendor</t>
   </si>
   <si>
-    <t>editvendor</t>
-  </si>
-  <si>
     <t>AddUserList</t>
   </si>
   <si>
-    <t>adduserlist</t>
-  </si>
-  <si>
     <t>AddVolunteer</t>
   </si>
   <si>
-    <t>addvolunteer</t>
-  </si>
-  <si>
     <t>AddBloodDonor</t>
   </si>
   <si>
-    <t>addblooddonor</t>
-  </si>
-  <si>
     <t>CityList</t>
   </si>
   <si>
-    <t>citylist</t>
-  </si>
-  <si>
     <t>AddCity</t>
   </si>
   <si>
-    <t>addcity</t>
-  </si>
-  <si>
     <t>EditCity</t>
   </si>
   <si>
-    <t>editcity</t>
-  </si>
-  <si>
     <t>ThedalVideoList</t>
   </si>
   <si>
-    <t>thedalvideolist</t>
-  </si>
-  <si>
     <t>AddThedalVideo</t>
   </si>
   <si>
-    <t>addthedalvideo</t>
-  </si>
-  <si>
     <t>EditThedalVideo</t>
   </si>
   <si>
-    <t>editthedalvideo</t>
-  </si>
-  <si>
     <t>Actions</t>
   </si>
   <si>
@@ -413,6 +374,9 @@
   </si>
   <si>
     <t>Used to verify the title of a page</t>
+  </si>
+  <si>
+    <t>Image</t>
   </si>
   <si>
     <t>Used to Read/Verify the Content inside a field/label</t>
@@ -510,12 +474,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,6 +491,20 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -555,26 +533,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -593,11 +556,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,38 +568,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -655,9 +586,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -670,7 +625,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,6 +675,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -709,31 +717,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,133 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,41 +902,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -992,8 +935,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,7 +980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1020,134 +998,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,16 +1159,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1512,10 +1499,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1528,19 +1515,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1556,7 +1543,7 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1600,7 +1587,7 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1633,7 +1620,7 @@
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
@@ -1645,7 +1632,7 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1674,17 +1661,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="6:6">
-      <c r="F17" t="s">
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
         <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C6:C11 C12:C14 C15:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>Actions!$B$2:$B$13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 D6:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 D6:D13 D14:D15">
       <formula1>Locator!$E$2:$E$1048576</formula1>
     </dataValidation>
   </dataValidations>
@@ -1701,13 +1697,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="12.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="11.8571428571429" customWidth="1"/>
@@ -1718,26 +1714,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
+      <c r="F1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1745,23 +1741,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE(B2,"_",C2,"_",D2)</f>
         <v>login_txtbx_username</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1769,10 +1765,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -1782,10 +1778,10 @@
         <v>login_txtbx_password</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1793,23 +1789,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
         <v>login_btn_login</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1817,23 +1813,23 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>login_lnk_forgetpassword</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1841,23 +1837,23 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>login_err_username</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1865,10 +1861,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -1878,10 +1874,10 @@
         <v>login_err_password</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1889,35 +1885,203 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>login_title_pagetitle</v>
       </c>
       <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="str">
+        <f>CONCATENATE(B9,"_",C9,"_",D9)</f>
+        <v>Login_img_brandlogo</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="str">
+        <f>CONCATENATE(B10,"_",C10,"_",D10)</f>
+        <v>ForgetPassword_title_pagetitle</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="str">
+        <f>CONCATENATE(B11,"_",C11,"_",D11)</f>
+        <v>ForgetPassword_txtbx_username</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="str">
+        <f>CONCATENATE(B12,"_",C12,"_",D12)</f>
+        <v>ForgetPassword_btn_resend</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="str">
+        <f>CONCATENATE(B13,"_",C13,"_",D13)</f>
+        <v>ForgetPassword_lnk_login</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="str">
+        <f>CONCATENATE(B14,"_",C14,"_",D14)</f>
+        <v>ForgetPassword_err_idnotfound</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
         <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="str">
+        <f>CONCATENATE(B15,"_",C15,"_",D15)</f>
+        <v>AdminList_title_pagetitle</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C2:C7 C10:C1048576">
-      <formula1>Actions!$F$2:$F$9</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9 B10:B14 B15:B1048576">
+      <formula1>Pages!$B$2:$B$1048576</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8 F2:F7 F10:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>Actions!$F$2:$F$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F8:F16 F17:F1048576">
       <formula1>Actions!$F$16:$F$22</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8 B9:B1048576">
-      <formula1>Pages!$C$2:$C$1048576</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1928,302 +2092,223 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="17.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="18.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="12">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="12">
+      <c r="B3" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="12">
+      <c r="B4" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="12">
+      <c r="B5" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="12">
+      <c r="B6" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="12">
+      <c r="B7" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="12">
+      <c r="B8" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="12">
+      <c r="B9" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="12">
+      <c r="B10" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="12">
+      <c r="B11" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="12">
+      <c r="B12" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="12">
+    <row r="14" spans="1:2">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="12" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="12" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="12" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="12">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="12" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="12">
-        <v>17</v>
-      </c>
-      <c r="B18" s="12" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="12" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="12">
-        <v>18</v>
-      </c>
-      <c r="B19" s="12" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="12" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="12">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="12">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="12">
-        <v>21</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="12">
-        <v>22</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="12">
-        <v>23</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="12">
-        <v>24</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="12">
-        <v>25</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2239,7 +2324,7 @@
   <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2253,20 +2338,20 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -2281,14 +2366,14 @@
         <v>21</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="8" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -2303,14 +2388,14 @@
         <v>15</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -2322,17 +2407,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="8" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -2347,14 +2432,14 @@
         <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="8" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -2366,14 +2451,14 @@
         <v>26</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="8" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -2388,14 +2473,14 @@
         <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="8" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -2407,17 +2492,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="8" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -2429,17 +2514,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -2451,14 +2536,18 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2472,11 +2561,11 @@
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2487,14 +2576,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -2505,38 +2594,38 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2548,75 +2637,75 @@
       </c>
       <c r="C16" s="6"/>
       <c r="E16" s="8" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2628,45 +2717,45 @@
       </c>
       <c r="C22" s="6"/>
       <c r="E22" s="8" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2674,7 +2763,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C28" s="6"/>
     </row>
@@ -2682,35 +2771,35 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2726,35 +2815,35 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2770,35 +2859,35 @@
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2814,35 +2903,35 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2850,7 +2939,7 @@
         <v>7</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C52" s="6"/>
     </row>
@@ -2858,35 +2947,35 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2894,7 +2983,7 @@
         <v>8</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C58" s="6"/>
     </row>
@@ -2902,35 +2991,35 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2938,7 +3027,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C64" s="6"/>
     </row>
@@ -2946,35 +3035,35 @@
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2990,35 +3079,35 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3026,7 +3115,7 @@
         <v>11</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C76" s="6"/>
     </row>
@@ -3034,35 +3123,35 @@
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3070,7 +3159,7 @@
         <v>12</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C82" s="6"/>
     </row>
@@ -3078,35 +3167,35 @@
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
